--- a/biology/Médecine/Brancardier/Brancardier.xlsx
+++ b/biology/Médecine/Brancardier/Brancardier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les brancardiers sont les personnes chargées du transport des patients ou victimes (malades ou blessés) vers un lieu sécurisé, aujourd'hui encore au sein d'une structure de soins ou en cas d'accident, de catastrophe ou sur un champ de bataille, vers un service médicalisé. Suivant les situations et les époques, ils peuvent utiliser des brancards, une civière, différents dispositifs de portage des plus rudimentaires au plus sophistiqués.
 </t>
@@ -511,7 +523,9 @@
           <t>Modalité du métier ou du service</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Au sein des établissements de santé, ces personnels reçoivent une formation spécifique, quant à la manutention et au transport des patients. Leur rôle est prépondérant dans l'accueil du malade ou du blessé.
 Au sein des blocs opératoires, des services de radiologie, les brancardiers font partie intégrante de l'équipe et peuvent participer sous la responsabilité des praticiens à l'installation des patients. Ils sont également là pour rassurer la personne qu'ils transportent.
@@ -545,7 +559,9 @@
           <t>Correspondance dans les langues voisines</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La traduction anglaise de brancardier est stretcher-bearer, soit littéralement un porteur de brancard. Le mot italien correspondant, qui semble avoir une parenté avec le terme bard,  est barelliere. L'appellation populaire est träger en allemand (en mode générique "le porteur")  et camillero en espagnol (au sens d'utilisateur de la camilla ou civière).
 </t>
